--- a/res/excel/测试表格.xlsx
+++ b/res/excel/测试表格.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byteyang/Developer/Python/ByTable/res/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F7BEF0-36BB-AA4F-9AE1-595C59A38EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF740CF0-7CD5-A84C-B528-1F6EBC7CDAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3160" yWindow="2160" windowWidth="28240" windowHeight="17440" activeTab="3" xr2:uid="{F4E24B22-665A-3E46-9C9A-76DB4B2E8BB4}"/>
   </bookViews>
@@ -622,12 +622,12 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -979,9 +979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6645D4C-2C6C-A94E-A0FA-42F82C8D892F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
